--- a/327-automatisation-mapping/ig/CodeSystem-input-task-ror-codesystem.xlsx
+++ b/327-automatisation-mapping/ig/CodeSystem-input-task-ror-codesystem.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-14T13:39:21+00:00</t>
+    <t>2024-03-19T13:17:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/327-automatisation-mapping/ig/CodeSystem-input-task-ror-codesystem.xlsx
+++ b/327-automatisation-mapping/ig/CodeSystem-input-task-ror-codesystem.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T13:17:15+00:00</t>
+    <t>2024-03-19T15:03:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
